--- a/biology/Botanique/Sandoricum_koetjape/Sandoricum_koetjape.xlsx
+++ b/biology/Botanique/Sandoricum_koetjape/Sandoricum_koetjape.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandoricum koetjape, « santol » ou « faux mangoustanier » est une espèce de plantes à fleurs du genre Sandoricum de la famille des Meliaceae (famille de l’ acajou). C'est un arbre trouvé en Asie.
-Cette espèce fut décrite pour la première fois en latin en 1768 par Nicolaas Laurens Burman sous le nom (Basionyme) de Melia koetjape dans sa Flora Indica, page 101[1].
-En 1912 Elmer Drew Merrill le rattache au genre Sandoricum en le publiant sous le nom de Sandoricum koetjape dans l’ouvrage The Philippine journal of science, volume 7 page 237 [2].
+Cette espèce fut décrite pour la première fois en latin en 1768 par Nicolaas Laurens Burman sous le nom (Basionyme) de Melia koetjape dans sa Flora Indica, page 101.
+En 1912 Elmer Drew Merrill le rattache au genre Sandoricum en le publiant sous le nom de Sandoricum koetjape dans l’ouvrage The Philippine journal of science, volume 7 page 237 .
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Azedarach edule Noronha , 1790
 Melia koetjape Burm.f. , 1768
@@ -550,7 +564,9 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On pense que le Sandoricum koetjape est originaire d’Indochine et de Malaisie péninsulaire, et aurait été introduit en Asie tropicale ( Indonésie, Inde, Maurice, Papouasie-Nouvelle-Guinée, Philippines ) où il se serait naturalisé.
 Il est fréquemment cultivé dans toutes ces régions et ses fruits sont abondants sur les marchés locaux lorsque c’en est la saison.
@@ -582,7 +598,9 @@
           <t>Noms locaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Filipino: santol
 Indonésien: kecapi, ketuat, sentul
@@ -591,7 +609,7 @@
 Thaï : krathon (กระท้อน, kratʰɔ́ːn) ou sathon (สะท้อน); également ma tong (มะต้อง) ou ma tuen (มะตื๋น) en Thaïlande du Nord.
 Birman: သစ်တို thi' tou θɪʔ tò
 Anglais: santol, sour apple ou cotton fruit.
-Khmer: កំពីងរាជ (ក្រពេញរាជ, លោះ) kɑmpɨɲ riec[3]
+Khmer: កំពីងរាជ (ក្រពេញរាជ, លោះ) kɑmpɨɲ riec
 Lao: ໝາກຕ້ອງ mȁːktɔ̂ːŋ
 Cingalais: donka</t>
         </is>
@@ -623,92 +641,171 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apparence et feuillage
-Sandoricum koetjape est un grand arbre à croissance rapide, à feuillage persistant (bien qu’il puisse perdre ses feuilles temporairement dans les régions arides).
+          <t>Apparence et feuillage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sandoricum koetjape est un grand arbre à croissance rapide, à feuillage persistant (bien qu’il puisse perdre ses feuilles temporairement dans les régions arides).
 Sa hauteur varie de 15 à 45 mètres. 
 Le tronc droit a une écorce claire. Il a des branches jusqu’à sa base. 
 Les vieux spécimens ont des racines contreforts.
 Les feuilles, disposées sur les branches de manière alternée et en spirale, sont pétiolées.
-Le limbe foliaire est composée de trois sections, chacune d'une longueur de 20 et 25 cm, elliptiques à oblongues-ovales, émoussées à la base de la nervure et aiguisé en son extrémité supérieure[4].
-Inflorescence et fleur
-Des inflorescences paniculées de 6 à 30 cm se développent sur les jeunes branches.
-Les fleurs à 5 pétales, d’environ 1 cm, sont verdâtres, jaunâtres, ou rosé clair[4].
-Fruits et graines
-La capsule (fruit) sphérique aplatie d'un diamètre de 4 à 7,5 cm présente souvent des rides.
+Le limbe foliaire est composée de trois sections, chacune d'une longueur de 20 et 25 cm, elliptiques à oblongues-ovales, émoussées à la base de la nervure et aiguisé en son extrémité supérieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sandoricum_koetjape</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandoricum_koetjape</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Inflorescence et fleur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des inflorescences paniculées de 6 à 30 cm se développent sur les jeunes branches.
+Les fleurs à 5 pétales, d’environ 1 cm, sont verdâtres, jaunâtres, ou rosé clair.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sandoricum_koetjape</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandoricum_koetjape</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruits et graines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La capsule (fruit) sphérique aplatie d'un diamètre de 4 à 7,5 cm présente souvent des rides.
 A maturité, sa couleur varie de jaune à doré, parfois rose ou orange.
 Le péricarpe est de mince à épais avec une surface velue. Il contient une sève laiteuse.
 Sa structure interne ressemble à celle du mangoustan, avec trois à cinq graines enrobées dans une pulpe comestible. D’un blanc transparent, juteuse, cette pulpe a un goût sucré, acide voire aigre.
 Les graines de 2 cm de long, non comestibles, sont de couleur brune.
-Le fruit mûrit sur la péninsule malaise en Juin et Juillet, aux Philippines de Juillet à Octobre[4].
+Le fruit mûrit sur la péninsule malaise en Juin et Juillet, aux Philippines de Juillet à Octobre.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Sandoricum_koetjape</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sandoricum_koetjape</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits mûrs sont récoltés en montant dans l'arbre par arrachage à la main ou à l'aide d'un long bâton en forme de fourche.
 La pulpe est consommée crue ou avec des épices.
 Elle est également cuite, ou transformée en Fruit confit ou en marmelade.
 Dans la Région de Bicol, aux Philippines, on sert un plat à base de pulpe râpée cuite dans du lait de coco agrémentée de morceaux de viande de porc et de piment.
-Les graines (brunes) de « Santol » ne sont pas comestibles et peuvent entraîner des complications telles que perforation intestinale en cas d'ingestion[5].
+Les graines (brunes) de « Santol » ne sont pas comestibles et peuvent entraîner des complications telles que perforation intestinale en cas d'ingestion.
 En Thaïlande les fruits non encore mûrs sont utilisés râpés pour la confection du som tam (salade de papaye verte).
 Le bois de cet arbre abondant est utile pour la construction. Il est généralement facile à travailler et à polir.
 Les feuilles et l'écorce sont utilisées en médecine comme cataplasme.
-Plusieurs parties de la plante peuvent avoir des effets anti-inflammatoires[6] et quelques extraits chimiques de tiges de Santol ont montré des propriétés anticancéreuses in vitro[7].
-L’extrait de graines de Santol a des propriétés insecticides[8].
+Plusieurs parties de la plante peuvent avoir des effets anti-inflammatoires et quelques extraits chimiques de tiges de Santol ont montré des propriétés anticancéreuses in vitro.
+L’extrait de graines de Santol a des propriétés insecticides.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Sandoricum_koetjape</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sandoricum_koetjape</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandoricum koetjape est un arbre des régions tropicales humides ; il pousse depuis le niveau de la mer jusqu’à une altitude de 1 000 m.
 Il préfère les terrains profonds et riches en humus combines à une distribution de pluie tout au long de l’année. Il supporte néanmoins les saisons sèches.
